--- a/WorkingFolder/Tables/macro_corr.xlsx
+++ b/WorkingFolder/Tables/macro_corr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
   <si>
     <t>median:var</t>
   </si>
@@ -37,73 +37,79 @@
     <t>mean:rvar</t>
   </si>
   <si>
+    <t>-0.05</t>
+  </si>
+  <si>
+    <t>-0.07</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>-0.04</t>
+  </si>
+  <si>
+    <t>-0.06</t>
+  </si>
+  <si>
+    <t>-0.09</t>
+  </si>
+  <si>
+    <t>-0.14</t>
+  </si>
+  <si>
+    <t>-0.1</t>
+  </si>
+  <si>
+    <t>-0.01</t>
+  </si>
+  <si>
     <t>-0.08</t>
   </si>
   <si>
-    <t>-0.1</t>
-  </si>
-  <si>
-    <t>-0.07</t>
-  </si>
-  <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>-0.03</t>
-  </si>
-  <si>
-    <t>-0.05</t>
-  </si>
-  <si>
-    <t>-0.09</t>
-  </si>
-  <si>
-    <t>-0.14</t>
+    <t>-0.12</t>
+  </si>
+  <si>
+    <t>-0.32**</t>
+  </si>
+  <si>
+    <t>-0.34***</t>
+  </si>
+  <si>
+    <t>-0.16</t>
+  </si>
+  <si>
+    <t>-0.24*</t>
+  </si>
+  <si>
+    <t>-0.29**</t>
+  </si>
+  <si>
+    <t>-0.0</t>
   </si>
   <si>
     <t>-0.13</t>
   </si>
   <si>
-    <t>-0.01</t>
-  </si>
-  <si>
-    <t>-0.12</t>
-  </si>
-  <si>
-    <t>-0.33**</t>
-  </si>
-  <si>
-    <t>-0.17</t>
-  </si>
-  <si>
-    <t>-0.24*</t>
-  </si>
-  <si>
-    <t>-0.29**</t>
-  </si>
-  <si>
-    <t>-0.0</t>
-  </si>
-  <si>
     <t>-0.15</t>
   </si>
   <si>
-    <t>-0.16</t>
-  </si>
-  <si>
     <t>-0.27**</t>
   </si>
   <si>
+    <t>-0.11</t>
+  </si>
+  <si>
     <t>0.24*</t>
   </si>
   <si>
     <t>-0.19</t>
   </si>
   <si>
+    <t>-0.21</t>
+  </si>
+  <si>
     <t>-0.2</t>
-  </si>
-  <si>
-    <t>-0.18</t>
   </si>
   <si>
     <t>-0.23*</t>
@@ -501,19 +507,19 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -524,19 +530,19 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -544,19 +550,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
         <v>18</v>
@@ -567,22 +573,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -590,22 +596,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -613,22 +619,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -636,22 +642,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -659,22 +665,22 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/WorkingFolder/Tables/macro_corr.xlsx
+++ b/WorkingFolder/Tables/macro_corr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>median:var</t>
   </si>
@@ -37,18 +37,51 @@
     <t>mean:rvar</t>
   </si>
   <si>
+    <t>-0.02</t>
+  </si>
+  <si>
     <t>-0.05</t>
   </si>
   <si>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>-0.08</t>
+  </si>
+  <si>
+    <t>-0.15</t>
+  </si>
+  <si>
+    <t>-0.12</t>
+  </si>
+  <si>
     <t>-0.07</t>
   </si>
   <si>
-    <t>nan</t>
-  </si>
-  <si>
     <t>-0.04</t>
   </si>
   <si>
+    <t>-0.0</t>
+  </si>
+  <si>
+    <t>-0.22*</t>
+  </si>
+  <si>
+    <t>-0.24**</t>
+  </si>
+  <si>
+    <t>-0.25**</t>
+  </si>
+  <si>
     <t>-0.06</t>
   </si>
   <si>
@@ -58,64 +91,37 @@
     <t>-0.14</t>
   </si>
   <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>-0.18</t>
+  </si>
+  <si>
+    <t>-0.17</t>
+  </si>
+  <si>
+    <t>-0.03</t>
+  </si>
+  <si>
+    <t>-0.11</t>
+  </si>
+  <si>
+    <t>-0.16</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
     <t>-0.1</t>
   </si>
   <si>
-    <t>-0.01</t>
-  </si>
-  <si>
-    <t>-0.08</t>
-  </si>
-  <si>
-    <t>-0.12</t>
-  </si>
-  <si>
-    <t>-0.32**</t>
-  </si>
-  <si>
-    <t>-0.34***</t>
-  </si>
-  <si>
-    <t>-0.16</t>
-  </si>
-  <si>
-    <t>-0.24*</t>
-  </si>
-  <si>
-    <t>-0.29**</t>
-  </si>
-  <si>
-    <t>-0.0</t>
-  </si>
-  <si>
-    <t>-0.13</t>
-  </si>
-  <si>
-    <t>-0.15</t>
-  </si>
-  <si>
-    <t>-0.27**</t>
-  </si>
-  <si>
-    <t>-0.11</t>
-  </si>
-  <si>
-    <t>0.24*</t>
-  </si>
-  <si>
-    <t>-0.19</t>
-  </si>
-  <si>
-    <t>-0.21</t>
-  </si>
-  <si>
-    <t>-0.2</t>
-  </si>
-  <si>
-    <t>-0.23*</t>
-  </si>
-  <si>
-    <t>-0.02</t>
+    <t>-0.26**</t>
+  </si>
+  <si>
+    <t>0.03</t>
   </si>
 </sst>
 </file>
@@ -507,19 +513,19 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -530,19 +536,19 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -550,22 +556,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -573,22 +579,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -596,22 +602,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -619,22 +625,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -642,22 +648,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -665,22 +671,22 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/WorkingFolder/Tables/macro_corr.xlsx
+++ b/WorkingFolder/Tables/macro_corr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="60">
   <si>
     <t>median:var</t>
   </si>
@@ -25,16 +25,43 @@
     <t>median:rvar</t>
   </si>
   <si>
+    <t>median:skew</t>
+  </si>
+  <si>
+    <t>mean:var</t>
+  </si>
+  <si>
+    <t>mean:iqr</t>
+  </si>
+  <si>
+    <t>mean:rvar</t>
+  </si>
+  <si>
     <t>mean:skew</t>
   </si>
   <si>
-    <t>mean:var</t>
-  </si>
-  <si>
-    <t>mean:iqr</t>
-  </si>
-  <si>
-    <t>mean:rvar</t>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>-0.16</t>
   </si>
   <si>
     <t>-0.02</t>
@@ -43,85 +70,130 @@
     <t>-0.05</t>
   </si>
   <si>
-    <t>-0.01</t>
-  </si>
-  <si>
-    <t>nan</t>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>-0.26**</t>
+  </si>
+  <si>
+    <t>-0.12</t>
+  </si>
+  <si>
+    <t>-0.14</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>-0.31***</t>
+  </si>
+  <si>
+    <t>-0.21*</t>
+  </si>
+  <si>
+    <t>-0.22*</t>
   </si>
   <si>
     <t>0.02</t>
   </si>
   <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>-0.08</t>
-  </si>
-  <si>
-    <t>-0.15</t>
-  </si>
-  <si>
-    <t>-0.12</t>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>-0.35***</t>
+  </si>
+  <si>
+    <t>-0.3**</t>
+  </si>
+  <si>
+    <t>-0.31**</t>
+  </si>
+  <si>
+    <t>-0.06</t>
+  </si>
+  <si>
+    <t>-0.03</t>
   </si>
   <si>
     <t>-0.07</t>
   </si>
   <si>
-    <t>-0.04</t>
-  </si>
-  <si>
     <t>-0.0</t>
   </si>
   <si>
-    <t>-0.22*</t>
-  </si>
-  <si>
-    <t>-0.24**</t>
+    <t>-0.29**</t>
+  </si>
+  <si>
+    <t>-0.13</t>
+  </si>
+  <si>
+    <t>-0.09</t>
+  </si>
+  <si>
+    <t>-0.17</t>
+  </si>
+  <si>
+    <t>-0.11</t>
+  </si>
+  <si>
+    <t>-0.4***</t>
+  </si>
+  <si>
+    <t>-0.41***</t>
+  </si>
+  <si>
+    <t>-0.39***</t>
+  </si>
+  <si>
+    <t>-0.21</t>
+  </si>
+  <si>
+    <t>-0.27**</t>
   </si>
   <si>
     <t>-0.25**</t>
   </si>
   <si>
-    <t>-0.06</t>
-  </si>
-  <si>
-    <t>-0.09</t>
-  </si>
-  <si>
-    <t>-0.14</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>-0.18</t>
-  </si>
-  <si>
-    <t>-0.17</t>
-  </si>
-  <si>
-    <t>-0.03</t>
-  </si>
-  <si>
-    <t>-0.11</t>
-  </si>
-  <si>
-    <t>-0.16</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>-0.1</t>
-  </si>
-  <si>
-    <t>-0.26**</t>
-  </si>
-  <si>
-    <t>0.03</t>
+    <t>-0.32***</t>
+  </si>
+  <si>
+    <t>-0.44***</t>
+  </si>
+  <si>
+    <t>-0.47***</t>
+  </si>
+  <si>
+    <t>-0.48***</t>
+  </si>
+  <si>
+    <t>-0.36***</t>
+  </si>
+  <si>
+    <t>-0.28**</t>
+  </si>
+  <si>
+    <t>-0.49***</t>
+  </si>
+  <si>
+    <t>-0.5***</t>
+  </si>
+  <si>
+    <t>-0.42***</t>
+  </si>
+  <si>
+    <t>-0.51***</t>
+  </si>
+  <si>
+    <t>-0.25*</t>
   </si>
 </sst>
 </file>
@@ -479,13 +551,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -504,189 +576,351 @@
       <c r="G1" s="1">
         <v>5</v>
       </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
         <v>33</v>
       </c>
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+      <c r="H7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" t="s">
         <v>32</v>
       </c>
-      <c r="G9" t="s">
-        <v>35</v>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/WorkingFolder/Tables/macro_corr.xlsx
+++ b/WorkingFolder/Tables/macro_corr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="58">
   <si>
     <t>median:var</t>
   </si>
@@ -40,160 +40,154 @@
     <t>mean:skew</t>
   </si>
   <si>
-    <t>0.04</t>
+    <t>-0.06</t>
+  </si>
+  <si>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>-0.13</t>
+  </si>
+  <si>
+    <t>-0.08</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>0.2*</t>
+  </si>
+  <si>
+    <t>-0.02</t>
+  </si>
+  <si>
+    <t>-0.12</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.31***</t>
+  </si>
+  <si>
+    <t>-0.17</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>0.26**</t>
+  </si>
+  <si>
+    <t>-0.16</t>
+  </si>
+  <si>
+    <t>-0.03</t>
+  </si>
+  <si>
+    <t>-0.1</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>-0.22*</t>
+  </si>
+  <si>
+    <t>-0.15</t>
+  </si>
+  <si>
+    <t>-0.05</t>
   </si>
   <si>
     <t>0.01</t>
   </si>
   <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>0.16</t>
-  </si>
-  <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>-0.16</t>
-  </si>
-  <si>
-    <t>-0.02</t>
-  </si>
-  <si>
-    <t>-0.05</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>0.18</t>
-  </si>
-  <si>
-    <t>0.07</t>
+    <t>-0.18</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>-0.25**</t>
+  </si>
+  <si>
+    <t>-0.21*</t>
+  </si>
+  <si>
+    <t>-0.3**</t>
+  </si>
+  <si>
+    <t>-0.2</t>
+  </si>
+  <si>
+    <t>-0.23*</t>
+  </si>
+  <si>
+    <t>-0.31**</t>
+  </si>
+  <si>
+    <t>-0.24*</t>
+  </si>
+  <si>
+    <t>-0.28**</t>
+  </si>
+  <si>
+    <t>-0.19</t>
+  </si>
+  <si>
+    <t>-0.27**</t>
+  </si>
+  <si>
+    <t>-0.33***</t>
+  </si>
+  <si>
+    <t>-0.4***</t>
+  </si>
+  <si>
+    <t>-0.29**</t>
+  </si>
+  <si>
+    <t>-0.39***</t>
+  </si>
+  <si>
+    <t>-0.44***</t>
   </si>
   <si>
     <t>-0.26**</t>
   </si>
   <si>
-    <t>-0.12</t>
-  </si>
-  <si>
-    <t>-0.14</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>-0.31***</t>
-  </si>
-  <si>
-    <t>-0.21*</t>
-  </si>
-  <si>
-    <t>-0.22*</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>0.13</t>
-  </si>
-  <si>
-    <t>-0.35***</t>
-  </si>
-  <si>
-    <t>-0.3**</t>
-  </si>
-  <si>
-    <t>-0.31**</t>
-  </si>
-  <si>
-    <t>-0.06</t>
-  </si>
-  <si>
-    <t>-0.03</t>
-  </si>
-  <si>
-    <t>-0.07</t>
-  </si>
-  <si>
-    <t>-0.0</t>
-  </si>
-  <si>
-    <t>-0.29**</t>
-  </si>
-  <si>
-    <t>-0.13</t>
-  </si>
-  <si>
-    <t>-0.09</t>
-  </si>
-  <si>
-    <t>-0.17</t>
-  </si>
-  <si>
-    <t>-0.11</t>
-  </si>
-  <si>
-    <t>-0.4***</t>
-  </si>
-  <si>
-    <t>-0.41***</t>
-  </si>
-  <si>
-    <t>-0.39***</t>
-  </si>
-  <si>
-    <t>-0.21</t>
-  </si>
-  <si>
-    <t>-0.27**</t>
-  </si>
-  <si>
-    <t>-0.25**</t>
-  </si>
-  <si>
-    <t>-0.32***</t>
-  </si>
-  <si>
-    <t>-0.44***</t>
-  </si>
-  <si>
-    <t>-0.47***</t>
-  </si>
-  <si>
-    <t>-0.48***</t>
-  </si>
-  <si>
-    <t>-0.36***</t>
-  </si>
-  <si>
-    <t>-0.28**</t>
-  </si>
-  <si>
-    <t>-0.49***</t>
-  </si>
-  <si>
-    <t>-0.5***</t>
-  </si>
-  <si>
-    <t>-0.42***</t>
-  </si>
-  <si>
-    <t>-0.51***</t>
-  </si>
-  <si>
     <t>-0.25*</t>
+  </si>
+  <si>
+    <t>-0.37***</t>
   </si>
 </sst>
 </file>
@@ -606,34 +600,34 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" t="s">
-        <v>55</v>
-      </c>
       <c r="M2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -647,34 +641,34 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" t="s">
-        <v>56</v>
-      </c>
       <c r="M3" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -691,31 +685,31 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" t="s">
         <v>45</v>
       </c>
-      <c r="J4" t="s">
-        <v>44</v>
-      </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="M4" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -767,37 +761,37 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J6" t="s">
         <v>46</v>
       </c>
       <c r="K6" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="L6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -808,37 +802,37 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
         <v>36</v>
       </c>
-      <c r="G7" t="s">
-        <v>39</v>
-      </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="I7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" t="s">
         <v>47</v>
       </c>
-      <c r="J7" t="s">
-        <v>33</v>
-      </c>
       <c r="K7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="L7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -849,37 +843,37 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
         <v>37</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" t="s">
         <v>23</v>
-      </c>
-      <c r="H8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" t="s">
-        <v>54</v>
-      </c>
-      <c r="L8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -890,37 +884,37 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J9" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="L9" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="M9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/WorkingFolder/Tables/macro_corr.xlsx
+++ b/WorkingFolder/Tables/macro_corr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="46">
   <si>
     <t>median:var</t>
   </si>
@@ -40,154 +40,118 @@
     <t>mean:skew</t>
   </si>
   <si>
+    <t>-0.14</t>
+  </si>
+  <si>
+    <t>-0.15</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>-0.04</t>
+  </si>
+  <si>
+    <t>-0.05</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>-0.08</t>
+  </si>
+  <si>
+    <t>-0.1</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>-0.23*</t>
+  </si>
+  <si>
+    <t>-0.11</t>
+  </si>
+  <si>
+    <t>-0.09</t>
+  </si>
+  <si>
+    <t>-0.07</t>
+  </si>
+  <si>
+    <t>-0.02</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>-0.13</t>
+  </si>
+  <si>
     <t>-0.06</t>
   </si>
   <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>-0.19</t>
+  </si>
+  <si>
+    <t>-0.18</t>
+  </si>
+  <si>
+    <t>-0.28**</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>-0.17</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>-0.03</t>
+  </si>
+  <si>
+    <t>-0.12</t>
+  </si>
+  <si>
+    <t>-0.16</t>
+  </si>
+  <si>
     <t>-0.01</t>
   </si>
   <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>0.13</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>-0.13</t>
-  </si>
-  <si>
-    <t>-0.08</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>0.16</t>
-  </si>
-  <si>
-    <t>0.2*</t>
-  </si>
-  <si>
-    <t>-0.02</t>
-  </si>
-  <si>
-    <t>-0.12</t>
-  </si>
-  <si>
-    <t>0.14</t>
+    <t>-0.21</t>
   </si>
   <si>
     <t>0.1</t>
   </si>
   <si>
-    <t>0.31***</t>
-  </si>
-  <si>
-    <t>-0.17</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>0.26**</t>
-  </si>
-  <si>
-    <t>-0.16</t>
-  </si>
-  <si>
-    <t>-0.03</t>
-  </si>
-  <si>
-    <t>-0.1</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>-0.22*</t>
-  </si>
-  <si>
-    <t>-0.15</t>
-  </si>
-  <si>
-    <t>-0.05</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>-0.18</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>-0.25**</t>
-  </si>
-  <si>
-    <t>-0.21*</t>
-  </si>
-  <si>
-    <t>-0.3**</t>
-  </si>
-  <si>
-    <t>-0.2</t>
-  </si>
-  <si>
-    <t>-0.23*</t>
-  </si>
-  <si>
-    <t>-0.31**</t>
-  </si>
-  <si>
-    <t>-0.24*</t>
-  </si>
-  <si>
-    <t>-0.28**</t>
-  </si>
-  <si>
-    <t>-0.19</t>
-  </si>
-  <si>
-    <t>-0.27**</t>
-  </si>
-  <si>
-    <t>-0.33***</t>
-  </si>
-  <si>
-    <t>-0.4***</t>
-  </si>
-  <si>
-    <t>-0.29**</t>
-  </si>
-  <si>
-    <t>-0.39***</t>
-  </si>
-  <si>
-    <t>-0.44***</t>
-  </si>
-  <si>
-    <t>-0.26**</t>
-  </si>
-  <si>
-    <t>-0.25*</t>
-  </si>
-  <si>
-    <t>-0.37***</t>
+    <t>0.29**</t>
+  </si>
+  <si>
+    <t>0.23*</t>
+  </si>
+  <si>
+    <t>0.17</t>
   </si>
 </sst>
 </file>
@@ -600,34 +564,34 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -641,34 +605,34 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
         <v>23</v>
-      </c>
-      <c r="M3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -682,34 +646,34 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M4" t="s">
         <v>42</v>
-      </c>
-      <c r="J4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -764,34 +728,34 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
         <v>28</v>
       </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s">
         <v>23</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" t="s">
         <v>43</v>
-      </c>
-      <c r="J6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -802,37 +766,37 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
         <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" t="s">
         <v>44</v>
-      </c>
-      <c r="J7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -843,37 +807,37 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
         <v>33</v>
       </c>
       <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" t="s">
         <v>37</v>
       </c>
-      <c r="H8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" t="s">
-        <v>16</v>
-      </c>
       <c r="K8" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="L8" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="M8" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -884,37 +848,37 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="I9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" t="s">
-        <v>55</v>
-      </c>
       <c r="M9" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/WorkingFolder/Tables/macro_corr.xlsx
+++ b/WorkingFolder/Tables/macro_corr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="66">
   <si>
     <t>median:var</t>
   </si>
@@ -40,118 +40,178 @@
     <t>mean:skew</t>
   </si>
   <si>
+    <t>-0.06</t>
+  </si>
+  <si>
+    <t>-0.02</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>-0.13</t>
+  </si>
+  <si>
+    <t>-0.09</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>-0.03</t>
+  </si>
+  <si>
+    <t>-0.11</t>
+  </si>
+  <si>
+    <t>-0.08</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.31**</t>
+  </si>
+  <si>
+    <t>-0.17</t>
+  </si>
+  <si>
+    <t>-0.07</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.25**</t>
+  </si>
+  <si>
+    <t>-0.12</t>
+  </si>
+  <si>
+    <t>-0.04</t>
+  </si>
+  <si>
+    <t>-0.1</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>-0.22*</t>
+  </si>
+  <si>
+    <t>-0.16</t>
+  </si>
+  <si>
     <t>-0.14</t>
   </si>
   <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>-0.18</t>
+  </si>
+  <si>
     <t>-0.15</t>
   </si>
   <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>-0.04</t>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>-0.25**</t>
+  </si>
+  <si>
+    <t>-0.31**</t>
+  </si>
+  <si>
+    <t>-0.2</t>
+  </si>
+  <si>
+    <t>-0.23*</t>
+  </si>
+  <si>
+    <t>-0.21*</t>
+  </si>
+  <si>
+    <t>-0.32**</t>
+  </si>
+  <si>
+    <t>-0.24*</t>
+  </si>
+  <si>
+    <t>-0.29**</t>
+  </si>
+  <si>
+    <t>-0.28**</t>
+  </si>
+  <si>
+    <t>-0.34***</t>
+  </si>
+  <si>
+    <t>-0.4***</t>
+  </si>
+  <si>
+    <t>-0.21</t>
+  </si>
+  <si>
+    <t>-0.3**</t>
+  </si>
+  <si>
+    <t>-0.39***</t>
+  </si>
+  <si>
+    <t>-0.44***</t>
+  </si>
+  <si>
+    <t>-0.19</t>
+  </si>
+  <si>
+    <t>-0.26**</t>
+  </si>
+  <si>
+    <t>-0.27**</t>
+  </si>
+  <si>
+    <t>-0.36***</t>
   </si>
   <si>
     <t>-0.05</t>
   </si>
   <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>-0.08</t>
-  </si>
-  <si>
-    <t>-0.1</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>-0.23*</t>
-  </si>
-  <si>
-    <t>-0.11</t>
-  </si>
-  <si>
-    <t>-0.09</t>
-  </si>
-  <si>
-    <t>-0.07</t>
-  </si>
-  <si>
-    <t>-0.02</t>
-  </si>
-  <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>-0.13</t>
-  </si>
-  <si>
-    <t>-0.06</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>0.13</t>
-  </si>
-  <si>
-    <t>-0.19</t>
-  </si>
-  <si>
-    <t>-0.18</t>
-  </si>
-  <si>
-    <t>-0.28**</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>-0.17</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>-0.03</t>
-  </si>
-  <si>
-    <t>-0.12</t>
-  </si>
-  <si>
-    <t>-0.16</t>
-  </si>
-  <si>
-    <t>-0.01</t>
-  </si>
-  <si>
-    <t>-0.21</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.29**</t>
-  </si>
-  <si>
-    <t>0.23*</t>
-  </si>
-  <si>
-    <t>0.17</t>
+    <t>-0.33**</t>
+  </si>
+  <si>
+    <t>-0.38***</t>
   </si>
 </sst>
 </file>
@@ -509,13 +569,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -552,8 +612,11 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,40 +624,43 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>47</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -602,40 +668,43 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" t="s">
         <v>15</v>
       </c>
-      <c r="L3" t="s">
-        <v>19</v>
-      </c>
       <c r="M3" t="s">
-        <v>23</v>
+        <v>55</v>
+      </c>
+      <c r="N3" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -643,40 +712,43 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="L4" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="M4" t="s">
-        <v>42</v>
+        <v>60</v>
+      </c>
+      <c r="N4" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -716,8 +788,11 @@
       <c r="M5" t="s">
         <v>11</v>
       </c>
+      <c r="N5" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -725,40 +800,43 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="K6" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="L6" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="M6" t="s">
-        <v>43</v>
+        <v>61</v>
+      </c>
+      <c r="N6" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -766,40 +844,43 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="J7" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="K7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="L7" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="M7" t="s">
-        <v>44</v>
+        <v>62</v>
+      </c>
+      <c r="N7" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -807,78 +888,84 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
         <v>39</v>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K8" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="L8" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="M8" t="s">
-        <v>45</v>
+        <v>33</v>
+      </c>
+      <c r="N8" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J9" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="K9" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="L9" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="M9" t="s">
-        <v>24</v>
+        <v>60</v>
+      </c>
+      <c r="N9" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/WorkingFolder/Tables/macro_corr.xlsx
+++ b/WorkingFolder/Tables/macro_corr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="48">
   <si>
     <t>median:var</t>
   </si>
@@ -40,178 +40,124 @@
     <t>mean:skew</t>
   </si>
   <si>
+    <t>-0.11</t>
+  </si>
+  <si>
+    <t>-0.07</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>-0.04</t>
+  </si>
+  <si>
+    <t>-0.03</t>
+  </si>
+  <si>
+    <t>-0.05</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>-0.12</t>
+  </si>
+  <si>
+    <t>-0.1</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>-0.14</t>
+  </si>
+  <si>
+    <t>-0.21*</t>
+  </si>
+  <si>
+    <t>-0.23*</t>
+  </si>
+  <si>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>0.21*</t>
+  </si>
+  <si>
     <t>-0.06</t>
   </si>
   <si>
+    <t>-0.08</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>-0.22*</t>
+  </si>
+  <si>
+    <t>-0.19</t>
+  </si>
+  <si>
+    <t>-0.18</t>
+  </si>
+  <si>
+    <t>-0.24*</t>
+  </si>
+  <si>
+    <t>-0.09</t>
+  </si>
+  <si>
+    <t>-0.16</t>
+  </si>
+  <si>
+    <t>-0.33***</t>
+  </si>
+  <si>
+    <t>-0.2</t>
+  </si>
+  <si>
+    <t>-0.15</t>
+  </si>
+  <si>
+    <t>-0.21</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
     <t>-0.02</t>
   </si>
   <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>0.05</t>
+    <t>-0.25*</t>
+  </si>
+  <si>
+    <t>0.1</t>
   </si>
   <si>
     <t>0.11</t>
   </si>
   <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>-0.26**</t>
+  </si>
+  <si>
     <t>0.12</t>
-  </si>
-  <si>
-    <t>-0.13</t>
-  </si>
-  <si>
-    <t>-0.09</t>
-  </si>
-  <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>0.16</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>-0.03</t>
-  </si>
-  <si>
-    <t>-0.11</t>
-  </si>
-  <si>
-    <t>-0.08</t>
-  </si>
-  <si>
-    <t>0.13</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>0.31**</t>
-  </si>
-  <si>
-    <t>-0.17</t>
-  </si>
-  <si>
-    <t>-0.07</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>0.25**</t>
-  </si>
-  <si>
-    <t>-0.12</t>
-  </si>
-  <si>
-    <t>-0.04</t>
-  </si>
-  <si>
-    <t>-0.1</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>-0.22*</t>
-  </si>
-  <si>
-    <t>-0.16</t>
-  </si>
-  <si>
-    <t>-0.14</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>-0.18</t>
-  </si>
-  <si>
-    <t>-0.15</t>
-  </si>
-  <si>
-    <t>-0.01</t>
-  </si>
-  <si>
-    <t>-0.25**</t>
-  </si>
-  <si>
-    <t>-0.31**</t>
-  </si>
-  <si>
-    <t>-0.2</t>
-  </si>
-  <si>
-    <t>-0.23*</t>
-  </si>
-  <si>
-    <t>-0.21*</t>
-  </si>
-  <si>
-    <t>-0.32**</t>
-  </si>
-  <si>
-    <t>-0.24*</t>
-  </si>
-  <si>
-    <t>-0.29**</t>
-  </si>
-  <si>
-    <t>-0.28**</t>
-  </si>
-  <si>
-    <t>-0.34***</t>
-  </si>
-  <si>
-    <t>-0.4***</t>
-  </si>
-  <si>
-    <t>-0.21</t>
-  </si>
-  <si>
-    <t>-0.3**</t>
-  </si>
-  <si>
-    <t>-0.39***</t>
-  </si>
-  <si>
-    <t>-0.44***</t>
-  </si>
-  <si>
-    <t>-0.19</t>
-  </si>
-  <si>
-    <t>-0.26**</t>
-  </si>
-  <si>
-    <t>-0.27**</t>
-  </si>
-  <si>
-    <t>-0.36***</t>
-  </si>
-  <si>
-    <t>-0.05</t>
-  </si>
-  <si>
-    <t>-0.33**</t>
-  </si>
-  <si>
-    <t>-0.38***</t>
   </si>
 </sst>
 </file>
@@ -627,37 +573,37 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="M2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" t="s">
         <v>47</v>
-      </c>
-      <c r="N2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -665,43 +611,43 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
         <v>34</v>
       </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s">
-        <v>42</v>
-      </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="N3" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -709,43 +655,43 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L4" t="s">
-        <v>56</v>
-      </c>
-      <c r="M4" t="s">
-        <v>60</v>
-      </c>
       <c r="N4" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -753,43 +699,43 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -797,43 +743,43 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
         <v>35</v>
       </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
       <c r="I6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" t="s">
         <v>46</v>
       </c>
-      <c r="J6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" t="s">
-        <v>53</v>
-      </c>
-      <c r="L6" t="s">
-        <v>57</v>
-      </c>
       <c r="M6" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="N6" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -841,43 +787,43 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
         <v>31</v>
       </c>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="L7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="M7" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="N7" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -885,43 +831,43 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="K8" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="L8" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="M8" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="N8" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -929,43 +875,43 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" t="s">
         <v>16</v>
       </c>
-      <c r="G9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" t="s">
-        <v>60</v>
-      </c>
-      <c r="M9" t="s">
-        <v>60</v>
-      </c>
       <c r="N9" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/WorkingFolder/Tables/macro_corr.xlsx
+++ b/WorkingFolder/Tables/macro_corr.xlsx
@@ -14,7 +14,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+  <si>
+    <t>mean:var</t>
+  </si>
+  <si>
+    <t>mean:iqr</t>
+  </si>
+  <si>
+    <t>mean:rvar</t>
+  </si>
   <si>
     <t>median:var</t>
   </si>
@@ -25,139 +34,79 @@
     <t>median:rvar</t>
   </si>
   <si>
-    <t>median:skew</t>
-  </si>
-  <si>
-    <t>mean:var</t>
-  </si>
-  <si>
-    <t>mean:iqr</t>
-  </si>
-  <si>
-    <t>mean:rvar</t>
-  </si>
-  <si>
-    <t>mean:skew</t>
-  </si>
-  <si>
-    <t>-0.11</t>
+    <t>-0.24**</t>
+  </si>
+  <si>
+    <t>-0.36***</t>
+  </si>
+  <si>
+    <t>-0.47***</t>
+  </si>
+  <si>
+    <t>-0.15</t>
+  </si>
+  <si>
+    <t>-0.53***</t>
+  </si>
+  <si>
+    <t>-0.44***</t>
+  </si>
+  <si>
+    <t>-0.56***</t>
+  </si>
+  <si>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>-0.55***</t>
+  </si>
+  <si>
+    <t>-0.37***</t>
+  </si>
+  <si>
+    <t>-0.42***</t>
+  </si>
+  <si>
+    <t>-0.43***</t>
+  </si>
+  <si>
+    <t>-0.09</t>
   </si>
   <si>
     <t>-0.07</t>
   </si>
   <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>-0.04</t>
-  </si>
-  <si>
-    <t>-0.03</t>
-  </si>
-  <si>
-    <t>-0.05</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>-0.12</t>
-  </si>
-  <si>
-    <t>-0.1</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>-0.14</t>
-  </si>
-  <si>
-    <t>-0.21*</t>
-  </si>
-  <si>
-    <t>-0.23*</t>
-  </si>
-  <si>
-    <t>-0.01</t>
-  </si>
-  <si>
-    <t>0.21*</t>
-  </si>
-  <si>
-    <t>-0.06</t>
-  </si>
-  <si>
-    <t>-0.08</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>-0.22*</t>
-  </si>
-  <si>
-    <t>-0.19</t>
-  </si>
-  <si>
-    <t>-0.18</t>
+    <t>-0.45***</t>
+  </si>
+  <si>
+    <t>-0.4***</t>
+  </si>
+  <si>
+    <t>-0.41***</t>
+  </si>
+  <si>
+    <t>-0.46***</t>
+  </si>
+  <si>
+    <t>-0.28**</t>
+  </si>
+  <si>
+    <t>-0.38***</t>
+  </si>
+  <si>
+    <t>-0.31**</t>
+  </si>
+  <si>
+    <t>-0.27**</t>
   </si>
   <si>
     <t>-0.24*</t>
   </si>
   <si>
-    <t>-0.09</t>
-  </si>
-  <si>
-    <t>-0.16</t>
-  </si>
-  <si>
-    <t>-0.33***</t>
-  </si>
-  <si>
-    <t>-0.2</t>
-  </si>
-  <si>
-    <t>-0.15</t>
-  </si>
-  <si>
-    <t>-0.21</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>-0.02</t>
-  </si>
-  <si>
-    <t>-0.25*</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>-0.26**</t>
-  </si>
-  <si>
-    <t>0.12</t>
+    <t>-0.49***</t>
   </si>
 </sst>
 </file>
@@ -515,13 +464,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:6">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -537,381 +486,125 @@
       <c r="F1" s="1">
         <v>4</v>
       </c>
-      <c r="G1" s="1">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" t="s">
-        <v>46</v>
-      </c>
-      <c r="M6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
         <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
       </c>
       <c r="F7" t="s">
         <v>30</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M9" t="s">
-        <v>16</v>
-      </c>
-      <c r="N9" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/WorkingFolder/Tables/macro_corr.xlsx
+++ b/WorkingFolder/Tables/macro_corr.xlsx
@@ -14,7 +14,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
+  <si>
+    <t>median:var</t>
+  </si>
+  <si>
+    <t>median:iqr</t>
+  </si>
+  <si>
+    <t>median:rvar</t>
+  </si>
   <si>
     <t>mean:var</t>
   </si>
@@ -25,88 +34,109 @@
     <t>mean:rvar</t>
   </si>
   <si>
-    <t>median:var</t>
-  </si>
-  <si>
-    <t>median:iqr</t>
-  </si>
-  <si>
-    <t>median:rvar</t>
-  </si>
-  <si>
-    <t>-0.24**</t>
-  </si>
-  <si>
-    <t>-0.36***</t>
-  </si>
-  <si>
-    <t>-0.47***</t>
-  </si>
-  <si>
-    <t>-0.15</t>
-  </si>
-  <si>
-    <t>-0.53***</t>
-  </si>
-  <si>
-    <t>-0.44***</t>
-  </si>
-  <si>
-    <t>-0.56***</t>
-  </si>
-  <si>
-    <t>-0.01</t>
+    <t>-0.1</t>
+  </si>
+  <si>
+    <t>-0.04</t>
+  </si>
+  <si>
+    <t>-0.08</t>
+  </si>
+  <si>
+    <t>-0.06</t>
+  </si>
+  <si>
+    <t>-0.05</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>-0.17</t>
+  </si>
+  <si>
+    <t>-0.13</t>
+  </si>
+  <si>
+    <t>-0.02</t>
+  </si>
+  <si>
+    <t>0.19*</t>
+  </si>
+  <si>
+    <t>-0.03</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>-0.07</t>
+  </si>
+  <si>
+    <t>-0.09</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>-0.18</t>
+  </si>
+  <si>
+    <t>-0.21*</t>
+  </si>
+  <si>
+    <t>-0.22*</t>
+  </si>
+  <si>
+    <t>-0.16</t>
+  </si>
+  <si>
+    <t>-0.2*</t>
+  </si>
+  <si>
+    <t>-0.19</t>
+  </si>
+  <si>
+    <t>-0.19*</t>
+  </si>
+  <si>
+    <t>-0.23*</t>
+  </si>
+  <si>
+    <t>-0.23**</t>
+  </si>
+  <si>
+    <t>-0.26**</t>
+  </si>
+  <si>
+    <t>-0.11</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>0.05</t>
   </si>
   <si>
     <t>0.01</t>
   </si>
   <si>
-    <t>-0.55***</t>
-  </si>
-  <si>
-    <t>-0.37***</t>
-  </si>
-  <si>
-    <t>-0.42***</t>
-  </si>
-  <si>
-    <t>-0.43***</t>
-  </si>
-  <si>
-    <t>-0.09</t>
-  </si>
-  <si>
-    <t>-0.07</t>
-  </si>
-  <si>
-    <t>-0.45***</t>
-  </si>
-  <si>
-    <t>-0.4***</t>
-  </si>
-  <si>
-    <t>-0.41***</t>
-  </si>
-  <si>
-    <t>-0.46***</t>
-  </si>
-  <si>
-    <t>-0.28**</t>
-  </si>
-  <si>
-    <t>-0.38***</t>
-  </si>
-  <si>
-    <t>-0.31**</t>
-  </si>
-  <si>
-    <t>-0.27**</t>
-  </si>
-  <si>
-    <t>-0.24*</t>
-  </si>
-  <si>
-    <t>-0.49***</t>
+    <t>0.08</t>
   </si>
 </sst>
 </file>
@@ -464,13 +494,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:14">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -486,8 +516,32 @@
       <c r="F1" s="1">
         <v>4</v>
       </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,79 +549,175 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
-        <v>26</v>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
+      <c r="N4" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -575,36 +725,84 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" t="s">
         <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
